--- a/区块链项目指标分析和工作安排.xlsx
+++ b/区块链项目指标分析和工作安排.xlsx
@@ -4,22 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540" tabRatio="519" activeTab="5"/>
+    <workbookView windowWidth="24225" windowHeight="12540" tabRatio="671" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="5" r:id="rId1"/>
     <sheet name="西电审计指标细化" sheetId="9" r:id="rId2"/>
     <sheet name="西电审计 工作计划" sheetId="2" r:id="rId3"/>
     <sheet name="南航项目（待完成）" sheetId="1" r:id="rId4"/>
-    <sheet name="纪要" sheetId="8" r:id="rId5"/>
-    <sheet name="区块链技术梳理" sheetId="10" r:id="rId6"/>
+    <sheet name="南航项目（指标细化）" sheetId="10" r:id="rId5"/>
+    <sheet name="纪要" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="142">
   <si>
     <t>区块链项目指标分析和工作安排</t>
   </si>
@@ -286,10 +286,13 @@
     <t>工作量</t>
   </si>
   <si>
+    <t>状态</t>
+  </si>
+  <si>
     <t>进展</t>
   </si>
   <si>
-    <t>详细进展</t>
+    <t>备注</t>
   </si>
   <si>
     <t xml:space="preserve">专利1项：
@@ -361,10 +364,22 @@
     <t>2.4软著本子书写</t>
   </si>
   <si>
+    <t>软件说明书</t>
+  </si>
+  <si>
+    <t>软件源程序</t>
+  </si>
+  <si>
+    <t>协作书</t>
+  </si>
+  <si>
     <t>写本子，依赖2.3</t>
   </si>
   <si>
-    <t>预估2人/天</t>
+    <t>预估1人/天</t>
+  </si>
+  <si>
+    <t>整个申请流程2个月，现在先开始进行申请</t>
   </si>
   <si>
     <t>技术进展报告3篇</t>
@@ -381,6 +396,530 @@
   <si>
     <t>1.保证有创新性科研成果，依赖前期文献阅读，寻找创新性idea，避免掉坑或者重复别人工作。
 2.同步专利、软著、论文进行。</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>研究内容</t>
+  </si>
+  <si>
+    <t>考核指标</t>
+  </si>
+  <si>
+    <t>拆解1</t>
+  </si>
+  <si>
+    <t>约束1</t>
+  </si>
+  <si>
+    <t>研究监管链共识算法的设计需求；
+研究监管链共识算法的技术实现。</t>
+  </si>
+  <si>
+    <t>年度技术进展报告1篇</t>
+  </si>
+  <si>
+    <t>设计需求</t>
+  </si>
+  <si>
+    <t>技术实现</t>
+  </si>
+  <si>
+    <t>提出符合监管链基本需求的新型共识算法；优化所提出的监管链共识算法；峰值吞吐量达到2000tps。</t>
+  </si>
+  <si>
+    <t>中期技术进展报告1篇，
+年度技术进展报告1篇，
+论文1篇，
+专利1项。</t>
+  </si>
+  <si>
+    <t>明确监管链基本需求</t>
+  </si>
+  <si>
+    <t>提出新型共识算法</t>
+  </si>
+  <si>
+    <t>优化算法</t>
+  </si>
+  <si>
+    <t>峰值吞吐量2000tps</t>
+  </si>
+  <si>
+    <t>提出符合监管链全部合理需求的新型共识算法，并进行软件实现；提高共识算法的速率与鲁棒性；峰值吞吐量达到5000tps。</t>
+  </si>
+  <si>
+    <t>测试报告1篇，
+最终科技报告1篇，
+软件著作权1项。</t>
+  </si>
+  <si>
+    <t>明确监管链全部合理需求</t>
+  </si>
+  <si>
+    <t>软件实现</t>
+  </si>
+  <si>
+    <t>保证鲁棒性</t>
+  </si>
+  <si>
+    <t>峰值5000tps</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">总体指标：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.论文 *1
+2.专利 *1
+3.软著 *1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+4.中期报告*1 年度报告*2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最终科技报告*1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 测试报告*1
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>研究内容：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+研究</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>联盟链</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>环境下的新型共识算法，设计基于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实用拜占庭容错</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（PBFT）等基础算法的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>快速</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>共识方法，探索</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>交易元数据提取与优化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>交易背书</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>与</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>验证并行化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>节点角色动态调整</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>节点信用分级</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>与</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>排序等机制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，解决</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>固定功能节点易遭攻击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、大规模交易高并发造成的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>网络风暴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>等问题，提高监管链的安全性与效率。</t>
+    </r>
+  </si>
+  <si>
+    <t>背景</t>
+  </si>
+  <si>
+    <t>联盟路</t>
+  </si>
+  <si>
+    <t>前提</t>
+  </si>
+  <si>
+    <t>使用拜占庭容错</t>
+  </si>
+  <si>
+    <t>解决问题</t>
+  </si>
+  <si>
+    <t>固定功能节点易被攻击</t>
+  </si>
+  <si>
+    <t>高并发的网络风暴</t>
+  </si>
+  <si>
+    <t>提高监管链效率</t>
+  </si>
+  <si>
+    <t>方案</t>
+  </si>
+  <si>
+    <t>交易元数据提取与优化</t>
+  </si>
+  <si>
+    <t>交易背书与验证并行化</t>
+  </si>
+  <si>
+    <t>节点角色动态调整</t>
+  </si>
+  <si>
+    <t>节点信用分级与排序机制</t>
+  </si>
+  <si>
+    <r>
+      <t>研究方法：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+首先，监管链的新型共识机制拟采用联盟链的拜占庭容错算法为基础架构，拟通过抽取交易的基础元数据重建交易的排序流程，并</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>优化验证协议以充分实现背书策略验证等操作的并行化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>大幅提高系统的吞吐率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；拟构建节点候选集，利用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>可验证随机函数等密码学技术设计非交互式选举协议</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，实现背书节点等重要角色的动态更新，并引入信用模型对节点进行分级排序，实现应用层的信任机制同底层共识协议的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>解耦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，提高系统的安全性与可扩展性。</t>
+    </r>
+  </si>
+  <si>
+    <t>1.重建交易排序流程</t>
+  </si>
+  <si>
+    <t>2.背书策略验证并行化</t>
+  </si>
+  <si>
+    <t>3.非交互式选举协议，节点动态更新</t>
+  </si>
+  <si>
+    <t>4.节点分级排序，应用与共识解耦</t>
+  </si>
+  <si>
+    <r>
+      <t>创新点：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+本课题以现有主流联盟链为基础框架，通过设计新的协议改进或重建现有共识算法的流程，构造适用于监管链独特属性的新型共识机制，具有较强的安全性和系统性能。监管链的新型共识机制通过改进多个协议模型，优化操作流程，对比现有方案性能将得到数量级的性能提升。此外，拟通过抽取交易的基础元数据重建交易的排序流程，并优化验证协议以充分实现背书策略验证等操作的并行化，大幅提高系统的吞吐率；拟构建节点候选集，利用可验证随机函数等密码学技术设计非交互式选举协议，实现背书节点等重要角色的动态更新，并引入信用模型对节点进行分级排序，实现应用层的信任机制同底层共识协议的解耦，提高系统的安全性与可扩展性。</t>
+    </r>
+  </si>
+  <si>
+    <t>内容</t>
+  </si>
+  <si>
+    <t>约束2</t>
   </si>
   <si>
     <t>1.构建“以链治链”跨链监管架构，
@@ -459,65 +998,6 @@
  软著*1
 </t>
   </si>
-  <si>
-    <t>限制</t>
-  </si>
-  <si>
-    <t>L2</t>
-  </si>
-  <si>
-    <t>HTLC</t>
-  </si>
-  <si>
-    <t>哈希时间锁定合约</t>
-  </si>
-  <si>
-    <t>1.多方参与，无需建立直接的payment channel
-2.基于RSMC，引入timelock，避免联合欺骗</t>
-  </si>
-  <si>
-    <t>RSMC</t>
-  </si>
-  <si>
-    <t>序列到期可撤销合约</t>
-  </si>
-  <si>
-    <t>设置前置条件时间，避免虚假广播合约，罚没funds</t>
-  </si>
-  <si>
-    <t>generalize state channel</t>
-  </si>
-  <si>
-    <t>泛化状态通道</t>
-  </si>
-  <si>
-    <t>1.扩展虚拟通道，超过中间方
-2.多方共享一个virtual channel</t>
-  </si>
-  <si>
-    <t>对智能合约要求高，不适用于bitcoin</t>
-  </si>
-  <si>
-    <t>counterfactual</t>
-  </si>
-  <si>
-    <t>链外信道的所有事件集合</t>
-  </si>
-  <si>
-    <t>Wormhole Attack</t>
-  </si>
-  <si>
-    <t>串联节点完成支付，并获得手续费</t>
-  </si>
-  <si>
-    <t>已经被修复</t>
-  </si>
-  <si>
-    <t>landmark routing techniques</t>
-  </si>
-  <si>
-    <t>路由连通性有额外保证的节点</t>
-  </si>
 </sst>
 </file>
 
@@ -529,8 +1009,16 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -558,8 +1046,24 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -573,7 +1077,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -603,7 +1107,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -611,17 +1115,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -673,9 +1176,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -683,20 +1185,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -748,37 +1236,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -790,19 +1254,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -820,13 +1290,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -838,7 +1332,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -850,7 +1368,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -868,67 +1416,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1011,6 +1499,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1022,6 +1519,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1046,15 +1554,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1091,17 +1590,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1116,10 +1604,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1128,137 +1616,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1268,15 +1756,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1295,18 +1801,21 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1319,10 +1828,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1331,10 +1840,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1367,22 +1876,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1797,336 +2306,336 @@
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="6" spans="3:12">
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
     </row>
     <row r="7" spans="3:12">
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
     </row>
     <row r="8" spans="3:12">
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
     </row>
     <row r="9" spans="3:12">
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
     </row>
     <row r="10" spans="3:12">
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
     </row>
     <row r="11" spans="3:12">
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
     </row>
     <row r="12" spans="3:12">
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40" t="s">
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
     </row>
     <row r="13" spans="3:12">
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
     </row>
     <row r="14" spans="3:12">
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
     </row>
     <row r="15" spans="3:12">
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
     </row>
     <row r="16" spans="3:12">
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
     </row>
     <row r="17" spans="3:12">
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
     </row>
     <row r="18" spans="3:12">
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
     </row>
     <row r="19" spans="3:12">
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
     </row>
     <row r="20" spans="3:12">
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
     </row>
     <row r="21" spans="3:12">
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
     </row>
     <row r="22" spans="3:12">
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
     </row>
     <row r="23" spans="3:12">
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="49"/>
     </row>
     <row r="24" spans="3:12">
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
     </row>
     <row r="25" spans="3:12">
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
     </row>
     <row r="26" spans="3:12">
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
     </row>
     <row r="27" spans="3:12">
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
     </row>
     <row r="28" spans="3:12">
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="42"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
     </row>
     <row r="29" spans="3:12">
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="42"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="49"/>
     </row>
     <row r="30" spans="3:12">
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="42"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
     </row>
     <row r="31" spans="3:12">
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="42"/>
-      <c r="L31" s="42"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="49"/>
     </row>
     <row r="32" spans="3:12">
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="42"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2145,256 +2654,256 @@
   <sheetPr/>
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="46.625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="22.375" style="15" customWidth="1"/>
-    <col min="3" max="3" width="21.5" style="15" customWidth="1"/>
-    <col min="4" max="4" width="30.375" style="15" customWidth="1"/>
-    <col min="5" max="5" width="25.125" style="15" customWidth="1"/>
-    <col min="6" max="6" width="23" style="15" customWidth="1"/>
-    <col min="7" max="7" width="9.06666666666667" style="15"/>
+    <col min="1" max="1" width="46.625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="22.375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="21.5" style="5" customWidth="1"/>
+    <col min="4" max="4" width="30.375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="25.125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="23" style="5" customWidth="1"/>
+    <col min="7" max="7" width="9.06666666666667" style="5"/>
     <col min="9" max="9" width="9.06666666666667" style="1"/>
-    <col min="10" max="16384" width="9.06666666666667" style="15"/>
+    <col min="10" max="16384" width="9.06666666666667" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" ht="42.75" spans="1:7">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="19" t="s">
+      <c r="F2" s="25"/>
+      <c r="G2" s="26" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" ht="39" customHeight="1" spans="1:7">
-      <c r="A3" s="12"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="20" t="s">
+      <c r="A3" s="22"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="19"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" ht="57" spans="1:7">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="32" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" ht="57" spans="1:7">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="24" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="25"/>
+      <c r="G5" s="32"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="25"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="32"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="7" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="25"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="32"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="25"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="32"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="28" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="30"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="5" t="s">
+      <c r="E9" s="37"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="29" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="33"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="5"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="29" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="5"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="35"/>
-      <c r="G12" s="36" t="s">
+      <c r="F12" s="42"/>
+      <c r="G12" s="43" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="37"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="44"/>
     </row>
     <row r="14" ht="28.5" spans="1:7">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23" t="s">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="38"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="45"/>
     </row>
     <row r="15" ht="28.5" spans="1:7">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="17" t="s">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="5" t="s">
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="17" ht="102" customHeight="1" spans="1:5">
       <c r="A17" s="1"/>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2456,13 +2965,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="46.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.375" style="1" customWidth="1"/>
@@ -2470,243 +2979,298 @@
     <col min="4" max="4" width="30.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="25.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="23" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.06666666666667" style="1"/>
+    <col min="7" max="7" width="13.25" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.06666666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="11" t="s">
         <v>57</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="2" ht="57" spans="1:7">
-      <c r="A2" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="8" t="s">
+      <c r="E2" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="F2" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" ht="57" spans="1:7">
-      <c r="A3" s="5"/>
-      <c r="B3" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="4"/>
+      <c r="E3" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" ht="57" spans="1:7">
-      <c r="A4" s="5"/>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="4"/>
+      <c r="B5" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" ht="45" customHeight="1" spans="1:7">
+      <c r="A6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="5"/>
-      <c r="B5" s="10" t="s">
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" ht="28.5" spans="1:7">
+      <c r="A7" s="4"/>
+      <c r="B7" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" ht="45" customHeight="1" spans="1:7">
-      <c r="A6" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" ht="28.5" spans="1:7">
-      <c r="A7" s="5"/>
-      <c r="B7" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" s="3" customFormat="1" spans="1:7">
-      <c r="A8" s="12"/>
-      <c r="B8" s="11" t="s">
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" s="10" customFormat="1" spans="1:7">
+      <c r="A8" s="4"/>
+      <c r="B8" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G8" s="13"/>
-    </row>
-    <row r="9" s="3" customFormat="1" spans="1:7">
-      <c r="A9" s="12"/>
-      <c r="B9" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="11" t="s">
+      <c r="F8" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="18"/>
+    </row>
+    <row r="9" s="10" customFormat="1" spans="1:7">
+      <c r="A9" s="4"/>
+      <c r="B9" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11" t="s">
+      <c r="C9" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G9" s="13"/>
-    </row>
-    <row r="10" ht="42.75" spans="1:7">
-      <c r="A10" s="5" t="s">
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="18"/>
+    </row>
+    <row r="10" s="10" customFormat="1" spans="1:7">
+      <c r="A10" s="4"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="18"/>
+    </row>
+    <row r="11" s="10" customFormat="1" spans="1:7">
+      <c r="A11" s="4"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="18"/>
+    </row>
+    <row r="12" s="10" customFormat="1" spans="1:7">
+      <c r="A12" s="4"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="18"/>
+    </row>
+    <row r="13" s="10" customFormat="1" ht="46" customHeight="1" spans="1:7">
+      <c r="A13" s="4"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" ht="42.75" spans="1:7">
+      <c r="A14" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" ht="42.75" spans="1:7">
-      <c r="A11" s="5"/>
-      <c r="B11" s="10" t="s">
+      <c r="C14" s="21"/>
+      <c r="D14" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" ht="42.75" spans="1:7">
+      <c r="A15" s="4"/>
+      <c r="B15" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" ht="42.75" spans="1:7">
-      <c r="A12" s="5"/>
-      <c r="B12" s="10" t="s">
+      <c r="C15" s="16"/>
+      <c r="D15" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" ht="42.75" spans="1:7">
+      <c r="A16" s="4"/>
+      <c r="B16" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" ht="71.25" spans="1:7">
-      <c r="A13" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="4"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" ht="71.25" spans="1:7">
+      <c r="A17" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A6:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B9:B12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -2716,45 +3280,267 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41:B52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="73.05" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.325" style="1" customWidth="1"/>
-    <col min="3" max="6" width="16.3833333333333" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.06666666666667" style="1"/>
+    <col min="1" max="1" width="9.06666666666667" style="5"/>
+    <col min="2" max="2" width="76.625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="25" style="5" customWidth="1"/>
+    <col min="4" max="4" width="28.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="25.625" style="5" customWidth="1"/>
+    <col min="6" max="7" width="16.3833333333333" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="9.06666666666667" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.5" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" ht="71.25" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" ht="42.75" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>89</v>
+    <row r="1" spans="1:5">
+      <c r="A1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="6">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="7">
+        <v>4</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="8"/>
+      <c r="D23" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="8"/>
+      <c r="D24" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="8"/>
+      <c r="E25" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="8"/>
+      <c r="E26" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="8"/>
+      <c r="D27" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="8"/>
+      <c r="E28" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="8"/>
+      <c r="E29" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="8"/>
+      <c r="E30" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4">
+      <c r="D33" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" ht="28.5" spans="4:4">
+      <c r="D34" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" ht="28.5" spans="4:4">
+      <c r="D35" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="9" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B22:B30"/>
+    <mergeCell ref="B32:B39"/>
+    <mergeCell ref="B41:B52"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="B14:C20"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
@@ -2763,10 +3549,95 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="76.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.625" style="1" customWidth="1"/>
+    <col min="3" max="6" width="16.3833333333333" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.06666666666667" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" ht="70" customHeight="1" spans="1:7">
+      <c r="A2" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" ht="70" customHeight="1" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" ht="70" customHeight="1" spans="1:7">
+      <c r="A4" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B1:M40"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2778,17 +3649,17 @@
   <sheetData>
     <row r="1" ht="71.25" spans="2:2">
       <c r="B1" s="2" t="s">
-        <v>90</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" ht="114" spans="2:2">
       <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" ht="409.5" spans="2:13">
       <c r="B5" s="2" t="s">
-        <v>92</v>
+        <v>141</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -3296,100 +4167,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="21.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="38.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.5" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="5:5">
-      <c r="E1" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" ht="57" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" ht="28.5" spans="2:4">
-      <c r="B3" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" ht="28.5" spans="2:5">
-      <c r="B4" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" ht="28.5" spans="2:4">
-      <c r="B9" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>